--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -5670,7 +5670,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>91</v>
